--- a/artfynd/A 14450-2023.xlsx
+++ b/artfynd/A 14450-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1463,6 +1463,1294 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112587034</v>
+      </c>
+      <c r="B9" t="n">
+        <v>89006</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4188</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fransig jordstjärna</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Geastrum fimbriatum</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fr.:Pers.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Fröjel, Gtl</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>692906</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6359283</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Fröjel</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Brian Johnson, Michael Krikorev, Gillis Aronsson, Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112587018</v>
+      </c>
+      <c r="B10" t="n">
+        <v>89331</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Fröjel, Gtl</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>692977</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6359184</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Fröjel</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Brian Johnson, Michael Krikorev, Gillis Aronsson, Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112585364</v>
+      </c>
+      <c r="B11" t="n">
+        <v>89006</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4188</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fransig jordstjärna</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Geastrum fimbriatum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Fr.:Pers.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Fröjel-Sigdarve, Gtl</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>692946</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6359174</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Fröjel</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Helena Björnström, Brian Johnson, Michael Krikorev</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112587033</v>
+      </c>
+      <c r="B12" t="n">
+        <v>89006</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4188</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fransig jordstjärna</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Geastrum fimbriatum</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Fr.:Pers.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Fröjel, Gtl</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>692945</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6359178</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Fröjel</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Brian Johnson, Michael Krikorev, Gillis Aronsson, Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112585365</v>
+      </c>
+      <c r="B13" t="n">
+        <v>89006</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4188</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fransig jordstjärna</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Geastrum fimbriatum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Fr.:Pers.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Fröjel-Sigdarve, Gtl</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>692959</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6359217</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Fröjel</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Helena Björnström</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Helena Björnström, Brian Johnson, Michael Krikorev</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112586310</v>
+      </c>
+      <c r="B14" t="n">
+        <v>89336</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Vit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hydnum albidum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Peck</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Syrmansberget vid Fröjel, Gtl</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>692897</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6359273</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Fröjel</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>2 ex.</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Äldre kalktallskog med inslag av gran.</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson, Helena Björnström, Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112586312</v>
+      </c>
+      <c r="B15" t="n">
+        <v>89336</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Vit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hydnum albidum</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Peck</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Syrmansberget vid Fröjel, Gtl</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>692883</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6359288</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Fröjel</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ca. 5 ex.</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Äldre kalktallskog med inslag av gran.</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson, Helena Björnström, Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112586311</v>
+      </c>
+      <c r="B16" t="n">
+        <v>89006</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4188</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fransig jordstjärna</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Geastrum fimbriatum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Fr.:Pers.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Syrmansberget vid Fröjel, Gtl</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>692886</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6359280</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Fröjel</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2 ex. i barrmatta under gran.</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Äldre kalktallskog med inslag av gran.</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson, Helena Björnström, Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112586308</v>
+      </c>
+      <c r="B17" t="n">
+        <v>89006</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4188</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fransig jordstjärna</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Geastrum fimbriatum</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Fr.:Pers.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Syrmansberget vid Fröjel, Gtl</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>692968</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6359239</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Fröjel</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>6 ex. i barrmatta under gran.</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Äldre kalktallskog med inslag av gran.</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson, Helena Björnström, Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112586309</v>
+      </c>
+      <c r="B18" t="n">
+        <v>89006</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4188</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fransig jordstjärna</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Geastrum fimbriatum</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Fr.:Pers.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Syrmansberget vid Fröjel, Gtl</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>692961</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6359243</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Fröjel</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>1 ex. i barrmatta under gran.</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Äldre kalktallskog med inslag av gran.</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson, Helena Björnström, Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112586306</v>
+      </c>
+      <c r="B19" t="n">
+        <v>89336</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Vit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hydnum albidum</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Peck</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Syrmansberget vid Fröjel, Gtl</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>692937</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6359174</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Fröjel</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>1 ex.</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Äldre kalktallskog med inslag av gran.</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Gillis Aronsson, Helena Björnström, Brian Johnson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Kalkbarrianerna 2023, Gotland</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
